--- a/last season cleaned data/lastseasonipl_ar.xlsx
+++ b/last season cleaned data/lastseasonipl_ar.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavanbandaru/Downloads/Dataset_Final/cleaned last season/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavanbandaru/Downloads/cricket-squad-selection/last season cleaned data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD728A13-8DC1-F240-AAA3-B733D81C2C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8E3F07-A77B-624D-8D9B-69CBD451AF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
   <si>
     <t>Player</t>
   </si>
@@ -64,9 +64,6 @@
     <t>R Shepherd</t>
   </si>
   <si>
-    <t>39*</t>
-  </si>
-  <si>
     <t>AR</t>
   </si>
   <si>
@@ -82,15 +79,9 @@
     <t>Washington Sundar</t>
   </si>
   <si>
-    <t>0*</t>
-  </si>
-  <si>
     <t>Arshad Khan</t>
   </si>
   <si>
-    <t>58*</t>
-  </si>
-  <si>
     <t>Mohammad Nabi</t>
   </si>
   <si>
@@ -115,18 +106,12 @@
     <t>K Nitish Kumar Reddy</t>
   </si>
   <si>
-    <t>76*</t>
-  </si>
-  <si>
     <t>HH Pandya</t>
   </si>
   <si>
     <t>WG Jacks</t>
   </si>
   <si>
-    <t>100*</t>
-  </si>
-  <si>
     <t>GJ Maxwell</t>
   </si>
   <si>
@@ -136,91 +121,55 @@
     <t>Shahbaz Ahmed</t>
   </si>
   <si>
-    <t>59*</t>
-  </si>
-  <si>
     <t>MM Ali</t>
   </si>
   <si>
     <t>KH Pandya</t>
   </si>
   <si>
-    <t>43*</t>
-  </si>
-  <si>
     <t>PJ Cummins</t>
   </si>
   <si>
-    <t>35*</t>
-  </si>
-  <si>
     <t>R Sai Kishore</t>
   </si>
   <si>
     <t>LS Livingstone</t>
   </si>
   <si>
-    <t>38*</t>
-  </si>
-  <si>
     <t>Harpreet Brar</t>
   </si>
   <si>
     <t>Swapnil Singh</t>
   </si>
   <si>
-    <t>15*</t>
-  </si>
-  <si>
     <t>DG Nalkande</t>
   </si>
   <si>
     <t>RA Jadeja</t>
   </si>
   <si>
-    <t>57*</t>
-  </si>
-  <si>
     <t>AR Patel</t>
   </si>
   <si>
     <t>MP Stoinis</t>
   </si>
   <si>
-    <t>124*</t>
-  </si>
-  <si>
     <t>SM Curran</t>
   </si>
   <si>
-    <t>63*</t>
-  </si>
-  <si>
     <t>C Green</t>
   </si>
   <si>
     <t>Abhishek Sharma</t>
   </si>
   <si>
-    <t>75*</t>
-  </si>
-  <si>
     <t>AD Russell</t>
   </si>
   <si>
-    <t>64*</t>
-  </si>
-  <si>
     <t>S Dube</t>
   </si>
   <si>
-    <t>66*</t>
-  </si>
-  <si>
     <t>Shashank Singh</t>
-  </si>
-  <si>
-    <t>68*</t>
   </si>
 </sst>
 </file>
@@ -590,7 +539,7 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P49" sqref="P49"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -657,8 +606,8 @@
       <c r="C2" s="2">
         <v>57</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
+      <c r="D2" s="2">
+        <v>39</v>
       </c>
       <c r="E2" s="2">
         <v>28.5</v>
@@ -685,12 +634,12 @@
         <v>-130.49</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2">
         <v>5</v>
@@ -726,12 +675,12 @@
         <v>-119.99</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
@@ -767,12 +716,12 @@
         <v>-110.99</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
@@ -808,12 +757,12 @@
         <v>-87.74</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
@@ -821,8 +770,8 @@
       <c r="C6" s="2">
         <v>0</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
+      <c r="D6" s="2">
+        <v>0</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -849,12 +798,12 @@
         <v>-72.989999999999995</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2">
         <v>4</v>
@@ -862,8 +811,8 @@
       <c r="C7" s="2">
         <v>83</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
+      <c r="D7" s="2">
+        <v>58</v>
       </c>
       <c r="E7" s="2">
         <v>41.5</v>
@@ -890,12 +839,12 @@
         <v>-72.489999999999995</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2">
         <v>7</v>
@@ -931,12 +880,12 @@
         <v>-45.74</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
@@ -972,12 +921,12 @@
         <v>-41.49</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2">
         <v>13</v>
@@ -1013,12 +962,12 @@
         <v>-41.09</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2">
         <v>9</v>
@@ -1054,12 +1003,12 @@
         <v>-40.79</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2">
         <v>15</v>
@@ -1095,12 +1044,12 @@
         <v>-37.549999999999997</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2">
         <v>7</v>
@@ -1136,12 +1085,12 @@
         <v>-35.99</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2">
         <v>3</v>
@@ -1177,12 +1126,12 @@
         <v>-27.33</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2">
         <v>13</v>
@@ -1190,8 +1139,8 @@
       <c r="C15" s="2">
         <v>303</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>31</v>
+      <c r="D15" s="2">
+        <v>76</v>
       </c>
       <c r="E15" s="2">
         <v>33.659999999999997</v>
@@ -1218,12 +1167,12 @@
         <v>-17.329999999999998</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2">
         <v>14</v>
@@ -1259,12 +1208,12 @@
         <v>-17.18</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2">
         <v>8</v>
@@ -1272,8 +1221,8 @@
       <c r="C17" s="2">
         <v>230</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>34</v>
+      <c r="D17" s="2">
+        <v>100</v>
       </c>
       <c r="E17" s="2">
         <v>32.85</v>
@@ -1300,12 +1249,12 @@
         <v>-17.14</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2">
         <v>10</v>
@@ -1341,12 +1290,12 @@
         <v>-15.72</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2">
         <v>14</v>
@@ -1382,12 +1331,12 @@
         <v>-15.54</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2">
         <v>16</v>
@@ -1395,8 +1344,8 @@
       <c r="C20" s="2">
         <v>215</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>38</v>
+      <c r="D20" s="2">
+        <v>59</v>
       </c>
       <c r="E20" s="2">
         <v>23.88</v>
@@ -1423,12 +1372,12 @@
         <v>-14.68</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2">
         <v>8</v>
@@ -1464,12 +1413,12 @@
         <v>-9.89</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2">
         <v>14</v>
@@ -1477,8 +1426,8 @@
       <c r="C22" s="2">
         <v>133</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>41</v>
+      <c r="D22" s="2">
+        <v>43</v>
       </c>
       <c r="E22" s="2">
         <v>33.25</v>
@@ -1505,12 +1454,12 @@
         <v>-9.24</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2">
         <v>16</v>
@@ -1518,8 +1467,8 @@
       <c r="C23" s="2">
         <v>136</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>43</v>
+      <c r="D23" s="2">
+        <v>35</v>
       </c>
       <c r="E23" s="2">
         <v>22.66</v>
@@ -1546,12 +1495,12 @@
         <v>-8.77</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2">
         <v>5</v>
@@ -1587,12 +1536,12 @@
         <v>-6.57</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2">
         <v>7</v>
@@ -1600,8 +1549,8 @@
       <c r="C25" s="2">
         <v>111</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>46</v>
+      <c r="D25" s="2">
+        <v>38</v>
       </c>
       <c r="E25" s="2">
         <v>22.2</v>
@@ -1628,12 +1577,12 @@
         <v>-5.79</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2">
         <v>13</v>
@@ -1669,12 +1618,12 @@
         <v>-5.78</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2">
         <v>7</v>
@@ -1682,8 +1631,8 @@
       <c r="C27" s="2">
         <v>37</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>49</v>
+      <c r="D27" s="2">
+        <v>15</v>
       </c>
       <c r="E27" s="2">
         <v>18.5</v>
@@ -1710,12 +1659,12 @@
         <v>-3.66</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2">
         <v>3</v>
@@ -1751,12 +1700,12 @@
         <v>-2.99</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2">
         <v>14</v>
@@ -1764,8 +1713,8 @@
       <c r="C29" s="2">
         <v>267</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>52</v>
+      <c r="D29" s="2">
+        <v>57</v>
       </c>
       <c r="E29" s="2">
         <v>44.5</v>
@@ -1792,12 +1741,12 @@
         <v>-1.62</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2">
         <v>14</v>
@@ -1833,12 +1782,12 @@
         <v>-1.26</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2">
         <v>14</v>
@@ -1846,8 +1795,8 @@
       <c r="C31" s="2">
         <v>388</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>55</v>
+      <c r="D31" s="2">
+        <v>124</v>
       </c>
       <c r="E31" s="2">
         <v>32.33</v>
@@ -1874,12 +1823,12 @@
         <v>0.83</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2">
         <v>13</v>
@@ -1887,8 +1836,8 @@
       <c r="C32" s="2">
         <v>270</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>57</v>
+      <c r="D32" s="2">
+        <v>63</v>
       </c>
       <c r="E32" s="2">
         <v>27</v>
@@ -1915,12 +1864,12 @@
         <v>1</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B33" s="2">
         <v>16</v>
@@ -1928,8 +1877,8 @@
       <c r="C33" s="2">
         <v>484</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>60</v>
+      <c r="D33" s="2">
+        <v>75</v>
       </c>
       <c r="E33" s="2">
         <v>32.26</v>
@@ -1956,12 +1905,12 @@
         <v>6.76</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B34" s="2">
         <v>15</v>
@@ -1969,8 +1918,8 @@
       <c r="C34" s="2">
         <v>222</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>62</v>
+      <c r="D34" s="2">
+        <v>64</v>
       </c>
       <c r="E34" s="2">
         <v>31.71</v>
@@ -1997,12 +1946,12 @@
         <v>16.18</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B35" s="2">
         <v>14</v>
@@ -2010,8 +1959,8 @@
       <c r="C35" s="2">
         <v>396</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>64</v>
+      <c r="D35" s="2">
+        <v>66</v>
       </c>
       <c r="E35" s="2">
         <v>36</v>
@@ -2038,12 +1987,12 @@
         <v>22</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B36" s="2">
         <v>14</v>
@@ -2051,8 +2000,8 @@
       <c r="C36" s="2">
         <v>354</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>66</v>
+      <c r="D36" s="2">
+        <v>68</v>
       </c>
       <c r="E36" s="2">
         <v>44.25</v>
@@ -2079,12 +2028,12 @@
         <v>39.25</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B37" s="2">
         <v>13</v>
